--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9467"/>
+    <workbookView windowWidth="24228" windowHeight="12815"/>
   </bookViews>
   <sheets>
     <sheet name="GameConfig" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>分辨率</t>
   </si>
   <si>
-    <t>语言</t>
+    <t>语言切换</t>
   </si>
   <si>
     <t>背景音乐</t>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1119,7 +1119,7 @@
         <v>100001</v>
       </c>
       <c r="B4" s="1">
-        <v>100005</v>
+        <v>100006</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1135,7 +1135,7 @@
         <v>100002</v>
       </c>
       <c r="B5" s="1">
-        <v>100006</v>
+        <v>100007</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1151,7 +1151,7 @@
         <v>100003</v>
       </c>
       <c r="B6" s="1">
-        <v>100007</v>
+        <v>100008</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
